--- a/medicine/Soins infirmiers et profession infirmière/René_Stockman/René_Stockman.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/René_Stockman/René_Stockman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René P. E. Stockman, F.C., né le 13 mai 1954 à Assenede (Belgique), est un spécialiste belge des soins psychiatriques et supérieur général de la congrégation pontificale des Frères de la charité de Gand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">René Stockman étudia à l'Institut Saint-Laurent à Zelzate de 1966 à 1972. Il termina ses études secondaires dans la filière économie.
 En 1972 il entra dans la congrégation des Frères de la charité et fit le noviciat de 1972 à 1973 à Sint-Maria-Aalter. De 1973 à 1976, il poursuivit les études menant à l’agrégat d'infirmier à l'Institut supérieur des professions paramédicales.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Activités professionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">René Stockman commence ses activités professionnelles en 1976, en devenant chef de département du service des soins au centre psychiatrique Saint-Julien (devenu le centre psychiatrique Dr Guislain) à Gand.  Il y demeure jusqu'en 1977.
 De 1980 à 1987, il est directeur de l'Instituut voor Psychiatrische verpleegkunde Guislain à Gand et de 1982 à 1988 directeur général du centre psychiatrique Dr Guislain.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Autres activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1976 - 2000 : rédacteur en chef du magazine professionnel Psychiatrie en Verpleging,
 depuis 1980 : chargé de cours à l'Institut Guislain pour les soins psychiatriques à Gand,
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chevalier de l'ordre équestre du Saint-Sépulcre de Jérusalem, commanderie de Belgique (1996).
 Commandeur de l'Ordre de Léopold (2013)</t>
@@ -640,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Stockman</t>
+          <t>René_Stockman</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,24 +680,97 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>En français
-Ni rime ni raison, histoire de la psychiatrie, Museum Dr. Guislain, Ghent, 1997
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ni rime ni raison, histoire de la psychiatrie, Museum Dr. Guislain, Ghent, 1997
 Le Père Triest - Vingt médiations, 2001
 Le Père Triest au quotidien
 A l’abri des paroles bloemlezing uit de geschriften van Vader Triest
 A la lumière de Marie, Halewijn, Anvers, 2004
-Pierre Joseph Triest. En chemin vers la sainteté, Gompel&amp;Svacina, 2019
-En anglais
-Praying with Father Triest, Broeders van Liefde, Gent, 1992
+Pierre Joseph Triest. En chemin vers la sainteté, Gompel&amp;Svacina, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Stockman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Stockman</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Praying with Father Triest, Broeders van Liefde, Gent, 1992
 Neither rhyme nor reason, history of psychiatry, Museum Dr. Guislain, Ghent, 1997,
 In the school of love - retreat about our life as Brothers of Charity, October 2001
 Father Triest - 20 meditations, 2001
 Father Triest for every day, 2001
 God makes history with people, 2002
 A harbour of wordsbloemlezing uit de geschriften van Vader Triest, 2002
-Peter Joseph Triest. On His Way to Sainthood, Gompel&amp;Svacina, 2019
-En néerlandais
-Plaats van de religieuzen in de geestelijke gezondheidszorg, Uitgeverij Acco, Leuven, 1983
+Peter Joseph Triest. On His Way to Sainthood, Gompel&amp;Svacina, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>René_Stockman</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Stockman</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En néerlandais</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Plaats van de religieuzen in de geestelijke gezondheidszorg, Uitgeverij Acco, Leuven, 1983
 Deontologie voor verpleegkundigen, Uitgeverij Aurelia - Paramedica, Gent, 1984
 Mijmeringen bij de geschiedenis van het Guislaininstituut, Uitgave Museum Dr. Guislain, Gent, 1987
 De Kerk en het verstoorde leven, Uitgeverij Lannoo, Tielt, 1988,
@@ -730,9 +823,43 @@
 Naar den Congo. 100 jaar Broeders van Liefde in Congo, Halewijn, 2011
 Laat niet verloren gaan één mensenkind, Gompel&amp;Svacina, 2018
 Zoektocht naar de ware vreugde. Een wandeling doorheen de zaligsprekingen, Gompel&amp;Svacina 2019
-Petrus Jozef Triest. Op weg naar heiligheid, Gompel&amp;Svacina, 2019
-En roumain
-Manual de nursing psichiatric, Bucuresti, 2004</t>
+Petrus Jozef Triest. Op weg naar heiligheid, Gompel&amp;Svacina, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>René_Stockman</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Stockman</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En roumain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Manual de nursing psichiatric, Bucuresti, 2004</t>
         </is>
       </c>
     </row>
